--- a/predict_skema1_part4.xlsx
+++ b/predict_skema1_part4.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.003606618819224</v>
+        <v>1.894926019223662</v>
       </c>
       <c r="C2" t="n">
-        <v>1.591008443878222</v>
+        <v>1.571469332526503</v>
       </c>
       <c r="D2" t="n">
-        <v>3.805343588017203</v>
+        <v>3.349553653988255</v>
       </c>
       <c r="E2" t="n">
-        <v>3.347562324940372</v>
+        <v>2.998615049101661</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.805643959225421</v>
+        <v>1.814985078730846</v>
       </c>
       <c r="C3" t="n">
-        <v>1.527083139168856</v>
+        <v>1.514182298719496</v>
       </c>
       <c r="D3" t="n">
-        <v>3.471615358875949</v>
+        <v>3.318485633017367</v>
       </c>
       <c r="E3" t="n">
-        <v>3.75303327976584</v>
+        <v>3.100677664051177</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.152917562218237</v>
+        <v>2.009584353074431</v>
       </c>
       <c r="C4" t="n">
-        <v>1.47214707507368</v>
+        <v>1.449646355083384</v>
       </c>
       <c r="D4" t="n">
-        <v>3.507169620647368</v>
+        <v>3.368650078236072</v>
       </c>
       <c r="E4" t="n">
-        <v>2.635380256681511</v>
+        <v>3.046529451859199</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.016761732809874</v>
+        <v>2.064444791438281</v>
       </c>
       <c r="C5" t="n">
-        <v>1.536868994517005</v>
+        <v>1.523408697765639</v>
       </c>
       <c r="D5" t="n">
-        <v>3.485520531990299</v>
+        <v>3.672696834305149</v>
       </c>
       <c r="E5" t="n">
-        <v>3.17465188516069</v>
+        <v>2.848807205304314</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.062821196695606</v>
+        <v>1.836888785008697</v>
       </c>
       <c r="C6" t="n">
-        <v>1.607351341519051</v>
+        <v>1.65632058063463</v>
       </c>
       <c r="D6" t="n">
-        <v>4.320922991113931</v>
+        <v>3.274570548663833</v>
       </c>
       <c r="E6" t="n">
-        <v>3.199030371155017</v>
+        <v>3.365831756333063</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.954954902624435</v>
+        <v>1.929643412581615</v>
       </c>
       <c r="C7" t="n">
-        <v>1.408221770364315</v>
+        <v>1.392359321276376</v>
       </c>
       <c r="D7" t="n">
-        <v>3.41429422503654</v>
+        <v>3.852511455335005</v>
       </c>
       <c r="E7" t="n">
-        <v>2.979583753929648</v>
+        <v>2.971363160151308</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.818799073216071</v>
+        <v>1.984503850945464</v>
       </c>
       <c r="C8" t="n">
-        <v>1.47294368980764</v>
+        <v>1.466121663958631</v>
       </c>
       <c r="D8" t="n">
-        <v>3.485520531990299</v>
+        <v>3.916044600669694</v>
       </c>
       <c r="E8" t="n">
-        <v>3.598526798580894</v>
+        <v>3.379633382530501</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.864858537101804</v>
+        <v>1.756947844515881</v>
       </c>
       <c r="C9" t="n">
-        <v>1.543426036809685</v>
+        <v>1.599033546827622</v>
       </c>
       <c r="D9" t="n">
-        <v>3.62649224878194</v>
+        <v>3.384511166605424</v>
       </c>
       <c r="E9" t="n">
-        <v>2.998895864025491</v>
+        <v>3.282637151763013</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.166072676208888</v>
+        <v>2.17910312528905</v>
       </c>
       <c r="C10" t="n">
-        <v>1.418007625712464</v>
+        <v>1.401585720322519</v>
       </c>
       <c r="D10" t="n">
-        <v>3.469489159026505</v>
+        <v>3.60014308292145</v>
       </c>
       <c r="E10" t="n">
-        <v>2.975414858655071</v>
+        <v>3.38198592624354</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.21213214009462</v>
+        <v>1.951547118859467</v>
       </c>
       <c r="C11" t="n">
-        <v>1.48848997271451</v>
+        <v>1.534497603191511</v>
       </c>
       <c r="D11" t="n">
-        <v>3.747641209074195</v>
+        <v>3.154720139564687</v>
       </c>
       <c r="E11" t="n">
-        <v>2.853553390593274</v>
+        <v>3.359930056895569</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.075976310686257</v>
+        <v>2.006407557223315</v>
       </c>
       <c r="C12" t="n">
-        <v>1.553211892157835</v>
+        <v>1.608259945873766</v>
       </c>
       <c r="D12" t="n">
-        <v>4.09755932585557</v>
+        <v>3.285406352857575</v>
       </c>
       <c r="E12" t="n">
-        <v>3.064606063318772</v>
+        <v>3.122633704799118</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.968110016615084</v>
+        <v>2.099162184796234</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354082321003099</v>
+        <v>1.344298686515511</v>
       </c>
       <c r="D13" t="n">
-        <v>3.267823111954174</v>
+        <v>4.00698849826259</v>
       </c>
       <c r="E13" t="n">
-        <v>2.778861096805846</v>
+        <v>3.075628036434083</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.014169480500817</v>
+        <v>1.87160617836665</v>
       </c>
       <c r="C14" t="n">
-        <v>1.424564668005145</v>
+        <v>1.477210569384503</v>
       </c>
       <c r="D14" t="n">
-        <v>3.340455079294254</v>
+        <v>3.951559962684662</v>
       </c>
       <c r="E14" t="n">
-        <v>2.825443382827105</v>
+        <v>3.049032366036801</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.878013651092454</v>
+        <v>1.926466616730499</v>
       </c>
       <c r="C15" t="n">
-        <v>1.489286587448469</v>
+        <v>1.550972912066758</v>
       </c>
       <c r="D15" t="n">
-        <v>3.963710793957853</v>
+        <v>3.395781930084563</v>
       </c>
       <c r="E15" t="n">
-        <v>2.870304337634147</v>
+        <v>3.447523008958981</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.22528725408527</v>
+        <v>2.121065891074084</v>
       </c>
       <c r="C16" t="n">
-        <v>1.434350523353294</v>
+        <v>1.486436968430646</v>
       </c>
       <c r="D16" t="n">
-        <v>3.89813526926943</v>
+        <v>3.436134674731735</v>
       </c>
       <c r="E16" t="n">
-        <v>2.928921342566245</v>
+        <v>3.709282319536904</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.027324594491467</v>
+        <v>2.041124950581268</v>
       </c>
       <c r="C17" t="n">
-        <v>1.370425218643928</v>
+        <v>1.429149934623638</v>
       </c>
       <c r="D17" t="n">
-        <v>3.64037118774725</v>
+        <v>3.992737904932945</v>
       </c>
       <c r="E17" t="n">
-        <v>2.950490971899759</v>
+        <v>3.17941407887948</v>
       </c>
     </row>
   </sheetData>
